--- a/public/excel/group/bts2.xlsx
+++ b/public/excel/group/bts2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>gambar</t>
   </si>
@@ -49,9 +49,6 @@
     <t>wajib</t>
   </si>
   <si>
-    <t>RPL</t>
-  </si>
-  <si>
     <t>gambar_2.jpg</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>TET</t>
+  </si>
+  <si>
+    <t>tet</t>
   </si>
 </sst>
 </file>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -451,16 +451,114 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/group/bts2.xlsx
+++ b/public/excel/group/bts2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Documents/BTS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3238E634-7DE3-CE43-A366-0FE153A7EBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1005" windowWidth="19440" windowHeight="12240"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{21E0E908-2527-EC40-A2DC-19703D833F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>gambar</t>
   </si>
@@ -43,32 +49,35 @@
     <t>d_kelas</t>
   </si>
   <si>
-    <t>gambar_1.jpg</t>
-  </si>
-  <si>
     <t>wajib</t>
   </si>
   <si>
-    <t>gambar_2.jpg</t>
-  </si>
-  <si>
-    <t>bebas</t>
-  </si>
-  <si>
-    <t>TET</t>
-  </si>
-  <si>
-    <t>tet</t>
+    <t>Foto_Kelas_1</t>
+  </si>
+  <si>
+    <t>Foto_Kelas_2</t>
+  </si>
+  <si>
+    <t>Foto_Kelas_3</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -208,7 +217,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -402,26 +411,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D168B15-4674-9149-8428-2EFF4D207D73}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,133 +444,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>